--- a/HomeFlicProjectTAF/src/test/resources/testData/excelFiles/VMR.xlsx
+++ b/HomeFlicProjectTAF/src/test/resources/testData/excelFiles/VMR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>TC ID</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>webowner@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
   <si>
     <t>strEmail</t>
@@ -131,8 +134,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -168,8 +171,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +192,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,20 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -218,15 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,24 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,31 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +569,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -584,11 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +602,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,168 +656,147 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:AU108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00952380952381" defaultRowHeight="15"/>
@@ -1442,8 +1445,8 @@
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
-        <v>12345678</v>
+      <c r="C6" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1463,10 +1466,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
